--- a/Calculation.xlsx
+++ b/Calculation.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vylt-my.sharepoint.com/personal/satyam_vylt_in/Documents/Altium_Designs/PowerModules/Buck001/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="866" documentId="8_{6BE1B914-91D1-4111-9E36-01ECB7B2D78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71B7D2F1-3D24-4B49-9A3D-AB05B8B667F1}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{8B805E33-D008-4B01-A5B0-B635F15AE2AE}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585"/>
   </bookViews>
   <sheets>
     <sheet name="TPS54360" sheetId="5" r:id="rId1"/>
@@ -18,7 +12,7 @@
     <sheet name="Input TVS Diode" sheetId="3" r:id="rId3"/>
     <sheet name="Pi Filter" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="127">
   <si>
     <t>Parameter</t>
   </si>
@@ -619,9 +613,6 @@
     <t>Minimum Capacitance Deduced</t>
   </si>
   <si>
-    <t>3 x 47uF</t>
-  </si>
-  <si>
     <t>Maximum  ESR</t>
   </si>
   <si>
@@ -634,9 +625,6 @@
     <t>Check Cap Parameter</t>
   </si>
   <si>
-    <t>3 x 47uF, 25V Low ESR</t>
-  </si>
-  <si>
     <t>STEP 4: CATCH DIODE</t>
   </si>
   <si>
@@ -716,19 +704,31 @@
   </si>
   <si>
     <t>VIN MIN</t>
+  </si>
+  <si>
+    <t>STEP 9: COMPENSATION NETWORK</t>
+  </si>
+  <si>
+    <t>Modulator Frequency</t>
+  </si>
+  <si>
+    <t>Zero Frequency</t>
+  </si>
+  <si>
+    <t>3 x 47uF, 25V, 5mOhm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="171" formatCode="0.00000000"/>
-    <numFmt numFmtId="172" formatCode="0.000000000000"/>
-    <numFmt numFmtId="182" formatCode="0.000000000"/>
-    <numFmt numFmtId="184" formatCode="0.0000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000000000"/>
+    <numFmt numFmtId="166" formatCode="0.000000000"/>
+    <numFmt numFmtId="167" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -994,49 +994,13 @@
     <xf numFmtId="2" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1054,7 +1018,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1066,10 +1030,46 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1092,10 +1092,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1141,7 +1137,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Display"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1193,7 +1189,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1407,43 +1403,45 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B1807A-C6E0-404B-9915-82DF3C843F8F}">
-  <dimension ref="A1:I78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="24"/>
+    <col min="1" max="1" width="39.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.125" style="12"/>
+    <col min="8" max="8" width="10.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>44</v>
       </c>
@@ -1457,21 +1455,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" s="29">
+    <row r="3" spans="1:9">
+      <c r="A3" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="17">
         <v>15</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="29"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D3" s="17"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B4" s="3">
         <v>60</v>
@@ -1481,7 +1479,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
         <v>47</v>
       </c>
@@ -1493,7 +1491,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>48</v>
       </c>
@@ -1505,7 +1503,7 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
         <v>50</v>
       </c>
@@ -1517,7 +1515,7 @@
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
         <v>51</v>
       </c>
@@ -1529,7 +1527,7 @@
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
         <v>80</v>
       </c>
@@ -1542,7 +1540,7 @@
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
         <v>81</v>
       </c>
@@ -1555,15 +1553,15 @@
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:9">
+      <c r="A12" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -1577,11 +1575,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="13">
         <f>135/1000000000</f>
         <v>1.35E-7</v>
       </c>
@@ -1590,7 +1588,7 @@
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
         <v>54</v>
       </c>
@@ -1602,7 +1600,7 @@
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
         <v>56</v>
       </c>
@@ -1614,7 +1612,7 @@
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
         <v>57</v>
       </c>
@@ -1626,7 +1624,7 @@
       </c>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
         <v>58</v>
       </c>
@@ -1638,7 +1636,7 @@
       </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
         <v>63</v>
       </c>
@@ -1650,11 +1648,11 @@
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="14">
         <f>(B6*B15+B5+B16)/(B4-B6*B17+B16)*(1/B14)</f>
         <v>1566093.4335633127</v>
       </c>
@@ -1663,11 +1661,11 @@
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="14">
         <f>(8/B14)*((B18*B15)+B19+B16)/(B4-(B18*B17)+B16)</f>
         <v>896959.06303410523</v>
       </c>
@@ -1676,11 +1674,11 @@
       </c>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="27">
+      <c r="B22" s="15">
         <f>ROUND(MIN(ROUND(B20,-5), ROUND(B21,-5)) - 100000, -5)</f>
         <v>800000</v>
       </c>
@@ -1689,11 +1687,11 @@
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="14">
         <f>MROUND(101756/((B22/1000)^1.008)*1000,10000)/1000</f>
         <v>120</v>
       </c>
@@ -1702,7 +1700,7 @@
       </c>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
         <v>66</v>
       </c>
@@ -1715,15 +1713,15 @@
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
+    <row r="26" spans="1:4">
+      <c r="A26" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
         <v>44</v>
       </c>
@@ -1737,7 +1735,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="45">
       <c r="A28" s="3" t="s">
         <v>69</v>
       </c>
@@ -1745,15 +1743,15 @@
         <v>0.2</v>
       </c>
       <c r="C28" s="3"/>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="31">
+      <c r="B29" s="19">
         <f>((B4-B5)*B5)/(B6*B28*B4*B22)</f>
         <v>1.9999999999999995E-5</v>
       </c>
@@ -1765,22 +1763,22 @@
         <v>19.999999999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
+    <row r="30" spans="1:4">
+      <c r="A30" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B30" s="28">
+      <c r="B30" s="16">
         <f>D30/1000000</f>
         <v>2.1999999999999999E-5</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="28">
+      <c r="D30" s="16">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="3" t="s">
         <v>72</v>
       </c>
@@ -1793,20 +1791,20 @@
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="32" t="s">
+    <row r="32" spans="1:4">
+      <c r="A32" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="32">
+      <c r="B32" s="20">
         <f>SQRT((B6^2)+((1/12)*(B31^2)))</f>
         <v>3.0041293894287828</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="32"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="20"/>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
         <v>74</v>
       </c>
@@ -1819,21 +1817,21 @@
       </c>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
+    <row r="34" spans="1:4">
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
         <v>44</v>
       </c>
@@ -1847,7 +1845,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
         <v>79</v>
       </c>
@@ -1860,7 +1858,7 @@
       </c>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
         <v>82</v>
       </c>
@@ -1873,7 +1871,7 @@
       </c>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
         <v>83</v>
       </c>
@@ -1886,7 +1884,7 @@
       </c>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
         <v>50</v>
       </c>
@@ -1899,11 +1897,11 @@
       </c>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B41" s="35">
+      <c r="B41" s="23">
         <f>(2*B37)/(B22*B38)*1000000</f>
         <v>7.8125</v>
       </c>
@@ -1914,51 +1912,54 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="30">
       <c r="A42" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="35">
+      <c r="B42" s="23">
         <f>(B30*(B10^2-B9^2))/(B39^2-B5^2)*1000000</f>
         <v>34.203980099502601</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D42" s="30" t="s">
+      <c r="D42" s="18" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="30">
       <c r="A43" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="35">
+      <c r="B43" s="23">
         <f>1/(8*B22*(B40/B31))*1000000</f>
         <v>1.4204545454545454</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="22">
+        <f>3 * 47</f>
+        <v>141</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="B45" s="3">
         <f>B40/B31*1000</f>
@@ -1967,34 +1968,34 @@
       <c r="C45" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D45" s="28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B46" s="3">
         <f>B31/SQRT(12)*1000</f>
         <v>157.45916432444341</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D46" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="25" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="2" t="s">
         <v>44</v>
       </c>
@@ -2008,9 +2009,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B50" s="3">
         <v>2</v>
@@ -2018,13 +2019,13 @@
       <c r="C50" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="28" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B51" s="3">
         <v>0.7</v>
@@ -2032,35 +2033,35 @@
       <c r="C51" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D51" s="28" t="s">
+      <c r="D51" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B52" s="36">
+      <c r="B52" s="24">
         <f>2*(B50-(((B4-B5)*B6*B51)/B4))/(B22*(B4+B51)^2)</f>
         <v>2.1712638655553419E-10</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D52" s="36">
+        <v>99</v>
+      </c>
+      <c r="D52" s="24">
         <f>B52*1000000000000</f>
         <v>217.1263865555342</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
+      <c r="A54" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="2" t="s">
         <v>44</v>
       </c>
@@ -2074,9 +2075,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B56" s="3">
         <f>B6*SQRT((B5*(B3-B5))/B3^2)</f>
@@ -2087,9 +2088,9 @@
       </c>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B57" s="3">
         <v>0.3</v>
@@ -2099,43 +2100,47 @@
       </c>
       <c r="D57" s="3"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B58" s="3">
         <f>(B6*0.25)/(B57*B22)</f>
         <v>3.1250000000000001E-6</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D58" s="3">
         <f>B58*1000000</f>
         <v>3.125</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="H59" s="12">
+        <f>3.5/(0.62*94*0.000001*2*3.14*5)</f>
+        <v>1912.5766670018231</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="2" t="s">
         <v>44</v>
       </c>
@@ -2149,21 +2154,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B63" s="3">
         <v>100</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D63" s="3"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B64" s="3">
         <v>25</v>
@@ -2173,15 +2178,15 @@
       </c>
       <c r="D64" s="3"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="B66" s="22"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
+      <c r="A66" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="2" t="s">
         <v>44</v>
       </c>
@@ -2195,9 +2200,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B68" s="3">
         <f>((B3-(B5+1.5))/0.0000034)</f>
@@ -2210,9 +2215,9 @@
         <v>470000</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B69" s="3">
         <f>1.2/(((B3-1.2)/D68)+0.0000012)</f>
@@ -2225,15 +2230,15 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
+      <c r="A71" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="2" t="s">
         <v>44</v>
       </c>
@@ -2247,9 +2252,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B73" s="3">
         <v>10000</v>
@@ -2259,9 +2264,9 @@
       </c>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B74" s="3">
         <f>(B73*(B5-0.8))/0.8</f>
@@ -2271,18 +2276,18 @@
         <v>61</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="B76" s="22"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="2" t="s">
         <v>44</v>
       </c>
@@ -2296,9 +2301,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="A78" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B78" s="3">
         <f>((B5+0.5+(0.0253*B6))/0.99)+(0.12*B6)-0.5</f>
@@ -2309,40 +2314,84 @@
       </c>
       <c r="D78" s="3"/>
     </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B80" s="25"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="25"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B82" s="12">
+        <f>B6/(2*3.14*B5*0.62*B44*0.000001)</f>
+        <v>455.37539690519594</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B83" s="12">
+        <f>1/(2*3.14*2.5*0.001*0.62*B44*0.000001)</f>
+        <v>728600.63504831353</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A35:D35"/>
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="A54:D54"/>
     <mergeCell ref="A61:D61"/>
     <mergeCell ref="A66:D66"/>
     <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A35:D35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4712F7-83C0-4074-9926-60CA12B156AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="32.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2353,7 +2402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="18">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -2364,7 +2413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="18">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -2375,7 +2424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="18">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -2386,7 +2435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="18">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -2398,7 +2447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -2407,7 +2456,7 @@
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="18">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -2419,7 +2468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="18">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -2431,7 +2480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="18">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -2442,7 +2491,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -2453,24 +2502,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-    </row>
-    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="31"/>
+    </row>
+    <row r="14" spans="1:3" ht="18">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
@@ -2482,7 +2531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -2492,7 +2541,7 @@
       </c>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="17.25">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -2503,7 +2552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="18">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -2515,52 +2564,52 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2574,25 +2623,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F981B0E9-820B-4EB7-B7EC-3D4F0ED7EC50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="45" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="5" max="5" width="9.125" style="1"/>
     <col min="6" max="6" width="74" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2606,7 +2655,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="18">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -2620,7 +2669,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="18">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
@@ -2635,7 +2684,7 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="18">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -2650,7 +2699,7 @@
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="18">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
@@ -2665,7 +2714,7 @@
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="18">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -2680,7 +2729,7 @@
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="18">
       <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
@@ -2695,103 +2744,103 @@
       </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15">
       <c r="A8" s="3"/>
       <c r="B8" s="5"/>
       <c r="C8" s="3"/>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15">
       <c r="A14" s="3"/>
       <c r="B14" s="5"/>
       <c r="C14" s="3"/>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2803,25 +2852,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508BF22B-34B7-4900-8DF6-C3435F3D2D4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="95.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="1" max="1" width="32.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="95.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="1"/>
     <col min="6" max="6" width="74" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2835,7 +2884,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="3" t="s">
         <v>43</v>
       </c>
@@ -2845,11 +2894,11 @@
       <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="32" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="16.5">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -2859,10 +2908,10 @@
       <c r="C3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="18"/>
+      <c r="D3" s="33"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15">
       <c r="A4" s="3" t="s">
         <v>41</v>
       </c>
@@ -2877,14 +2926,14 @@
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
+    <row r="5" spans="1:6" ht="15">
+      <c r="A5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="36"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="18">
       <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
@@ -2898,7 +2947,7 @@
       <c r="D6" s="7"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="18">
       <c r="A7" s="3" t="s">
         <v>40</v>
       </c>
@@ -2912,103 +2961,103 @@
       <c r="D7" s="7"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15">
       <c r="A8" s="3"/>
       <c r="B8" s="5"/>
       <c r="C8" s="3"/>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15">
       <c r="A14" s="3"/>
       <c r="B14" s="5"/>
       <c r="C14" s="3"/>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>

--- a/Calculation.xlsx
+++ b/Calculation.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vylt-my.sharepoint.com/personal/satyam_vylt_in/Documents/Altium_Designs/PowerModules/Buck001/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="275" documentId="11_A080A7F1B44243B2D85E54E72296B2CE3370367C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{833A62F8-0624-4BC3-83E5-5488C8F54E97}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TPS54360" sheetId="5" r:id="rId1"/>
@@ -12,7 +18,7 @@
     <sheet name="Input TVS Diode" sheetId="3" r:id="rId3"/>
     <sheet name="Pi Filter" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="174">
   <si>
     <t>Parameter</t>
   </si>
@@ -717,18 +723,162 @@
   <si>
     <t>3 x 47uF, 25V, 5mOhm</t>
   </si>
+  <si>
+    <t>Effective ESR</t>
+  </si>
+  <si>
+    <t>geometric mean of pole and zero</t>
+  </si>
+  <si>
+    <t>Crossover Frequency, FCO1</t>
+  </si>
+  <si>
+    <t>Crossover Frequency, FCO2</t>
+  </si>
+  <si>
+    <t>geometric mean of pole ans switching frequency</t>
+  </si>
+  <si>
+    <t>Selected Crossover Frequency</t>
+  </si>
+  <si>
+    <t>Zero RES</t>
+  </si>
+  <si>
+    <t>Power Stage Transconductance, GMPS</t>
+  </si>
+  <si>
+    <t>A/V</t>
+  </si>
+  <si>
+    <t>Internal Reference Voltage</t>
+  </si>
+  <si>
+    <t>Amplifier Transconductance, GMEA</t>
+  </si>
+  <si>
+    <t>Zero CAP</t>
+  </si>
+  <si>
+    <t>F ---&gt; pF</t>
+  </si>
+  <si>
+    <t>Pole CAP C1</t>
+  </si>
+  <si>
+    <t>Pole CAP C2</t>
+  </si>
+  <si>
+    <t>24K + 2.4K</t>
+  </si>
+  <si>
+    <t>Selected Pole CAP</t>
+  </si>
+  <si>
+    <t>pF</t>
+  </si>
+  <si>
+    <t>STEP 10: POWER DISSIPATION</t>
+  </si>
+  <si>
+    <t>Nominal Input Voltage</t>
+  </si>
+  <si>
+    <t>Switching Loss</t>
+  </si>
+  <si>
+    <t>Conduction Loss</t>
+  </si>
+  <si>
+    <t>Gate Drive Loss</t>
+  </si>
+  <si>
+    <t>Input Supply Loss</t>
+  </si>
+  <si>
+    <t>Total Power Loss</t>
+  </si>
+  <si>
+    <t>Junction Temperature</t>
+  </si>
+  <si>
+    <t>Thermal Resistance of Package</t>
+  </si>
+  <si>
+    <t>°C/W</t>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>using junction to board with proper copper pad and vias</t>
+  </si>
+  <si>
+    <t>PART SELECTION</t>
+  </si>
+  <si>
+    <t>Input Capacitor</t>
+  </si>
+  <si>
+    <t>Boot Capacitor</t>
+  </si>
+  <si>
+    <t>1 x 100nF , 25V</t>
+  </si>
+  <si>
+    <t>EN Pin HS Res</t>
+  </si>
+  <si>
+    <t>EN Pin LS Res</t>
+  </si>
+  <si>
+    <t>RT Res</t>
+  </si>
+  <si>
+    <t>FB HS Res</t>
+  </si>
+  <si>
+    <t>FB LS Res</t>
+  </si>
+  <si>
+    <t>CS Zero Res</t>
+  </si>
+  <si>
+    <t>CS Zero Cap</t>
+  </si>
+  <si>
+    <t>CS Pole Cap</t>
+  </si>
+  <si>
+    <t>Catch Diode</t>
+  </si>
+  <si>
+    <t>Inductor</t>
+  </si>
+  <si>
+    <t>Output Capacitor</t>
+  </si>
+  <si>
+    <t>uH &lt;---&gt; A</t>
+  </si>
+  <si>
+    <t>CDBB5100-HF</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="0.00000000"/>
     <numFmt numFmtId="165" formatCode="0.000000000000"/>
     <numFmt numFmtId="166" formatCode="0.000000000"/>
     <numFmt numFmtId="167" formatCode="0.0000000"/>
+    <numFmt numFmtId="174" formatCode="0.000000"/>
+    <numFmt numFmtId="177" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="180" formatCode="0.0000000000000000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -964,7 +1114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1024,9 +1174,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1070,6 +1217,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1403,45 +1562,51 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.125" style="12"/>
-    <col min="8" max="8" width="10.875" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.125" style="12"/>
+    <col min="1" max="1" width="39.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="12"/>
+    <col min="7" max="7" width="16.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="12" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" style="12" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="G1" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>44</v>
       </c>
@@ -1454,8 +1619,20 @@
       <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="G2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>103</v>
       </c>
@@ -1466,932 +1643,1362 @@
         <v>3</v>
       </c>
       <c r="D3" s="17"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="3" t="s">
+      <c r="G3" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H3" s="3" t="str">
+        <f>D61</f>
+        <v>2 x 4.7uF, 100V, Low ESR</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="17">
+        <v>48</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="G4" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H4" s="3" t="str">
+        <f>D66</f>
+        <v>1 x 100nF , 25V</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B5" s="3">
         <v>60</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="3">
-        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="G5" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="H5" s="3">
+        <f>D70/1000</f>
+        <v>470</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="3">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H6" s="3">
+        <f>D71/1000</f>
+        <v>39</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B7" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="3" t="s">
+      <c r="D7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H7" s="15">
+        <f>B24</f>
+        <v>120</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B8" s="3">
         <v>0.5</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="G8" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H8" s="3" t="str">
+        <f>D76</f>
+        <v>110K + 30K</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H9" s="3">
+        <f>B75/1000</f>
+        <v>10</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="3">
-        <f>0.25*B6</f>
+      <c r="B10" s="3">
+        <f>0.25*B7</f>
         <v>0.75</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="3">
-        <f>0.75*B6</f>
-        <v>2.25</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="3"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="25" t="s">
+      <c r="G10" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H10" s="3" t="str">
+        <f>D92</f>
+        <v>24K + 2.4K</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="3">
+        <f>0.75*B7</f>
+        <v>2.25</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" s="3">
+        <f>D93</f>
+        <v>13214.282950101768</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G12" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H12" s="3">
+        <f>D96</f>
+        <v>15</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="G13" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="3" t="s">
+      <c r="G14" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H14" s="3">
+        <f>D31</f>
+        <v>22</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="J14" s="3">
+        <f>B34</f>
+        <v>3.2727272727272725</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B15" s="13">
         <f>135/1000000000</f>
         <v>1.35E-7</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="3" t="s">
+      <c r="D15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H15" s="3" t="str">
+        <f>D45</f>
+        <v>3 x 47uF, 25V, 5mOhm</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B16" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="3" t="s">
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B17" s="3">
         <v>0.7</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3" t="s">
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B18" s="3">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="3" t="s">
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B19" s="3">
         <v>4.5</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="3" t="s">
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B20" s="3">
         <v>0.1</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="3" t="s">
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="14">
-        <f>(B6*B15+B5+B16)/(B4-B6*B17+B16)*(1/B14)</f>
+      <c r="B21" s="14">
+        <f>(B7*B16+B6+B17)/(B5-B7*B18+B17)*(1/B15)</f>
         <v>1566093.4335633127</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="14">
-        <f>(8/B14)*((B18*B15)+B19+B16)/(B4-(B18*B17)+B16)</f>
-        <v>896959.06303410523</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="15">
-        <f>ROUND(MIN(ROUND(B20,-5), ROUND(B21,-5)) - 100000, -5)</f>
-        <v>800000</v>
+        <v>60</v>
+      </c>
+      <c r="B22" s="14">
+        <f>(8/B15)*((B19*B16)+B20+B17)/(B5-(B19*B18)+B17)</f>
+        <v>896959.06303410523</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="15">
+        <f>ROUND(MIN(ROUND(B21,-5), ROUND(B22,-5)) - 100000, -5)</f>
+        <v>800000</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="14">
-        <f>MROUND(101756/((B22/1000)^1.008)*1000,10000)/1000</f>
+      <c r="B24" s="14">
+        <f>MROUND(101756/((B23/1000)^1.008)*1000,10000)/1000</f>
         <v>120</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="3" t="s">
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="3">
-        <f>POWER(101756 / B23, 1 / 1.008)*1000</f>
+      <c r="B25" s="3">
+        <f>POWER(101756 / B24, 1 / 1.008)*1000</f>
         <v>803780.89480373147</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="25" t="s">
+      <c r="D25" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="2" t="s">
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="45">
-      <c r="A28" s="3" t="s">
+    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B29" s="3">
         <v>0.2</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="18" t="s">
+      <c r="C29" s="3"/>
+      <c r="D29" s="18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="3" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="19">
-        <f>((B4-B5)*B5)/(B6*B28*B4*B22)</f>
+      <c r="B30" s="19">
+        <f>((B5-B6)*B6)/(B7*B29*B5*B23)</f>
         <v>1.9999999999999995E-5</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="3">
-        <f>B29*1000000</f>
+      <c r="D30" s="3">
+        <f>B30*1000000</f>
         <v>19.999999999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="16" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B30" s="16">
-        <f>D30/1000000</f>
+      <c r="B31" s="16">
+        <f>D31/1000000</f>
         <v>2.1999999999999999E-5</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C31" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D31" s="16">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="3" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="3">
-        <f>(B5*(B4-B5))/(B4*B30*B22)</f>
+      <c r="B32" s="3">
+        <f>(B6*(B5-B6))/(B5*B31*B23)</f>
         <v>0.54545454545454541</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="20" t="s">
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="20">
-        <f>SQRT((B6^2)+((1/12)*(B31^2)))</f>
+      <c r="B33" s="20">
+        <f>SQRT((B7^2)+((1/12)*(B32^2)))</f>
         <v>3.0041293894287828</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C33" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="20"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="3" t="s">
+      <c r="D33" s="20"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="3">
-        <f>B6+(B31/2)</f>
+      <c r="B34" s="3">
+        <f>B7+(B32/2)</f>
         <v>3.2727272727272725</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="25" t="s">
+      <c r="D34" s="3"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="2" t="s">
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="3" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="3">
-        <f>B10-B9</f>
+      <c r="B38" s="3">
+        <f>B11-B10</f>
         <v>1.5</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="3" t="s">
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="3">
-        <f>B5*4/100</f>
+      <c r="B39" s="3">
+        <f>B6*4/100</f>
         <v>0.48</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" s="3">
-        <f>(100+B8)*B5/100</f>
-        <v>12.12</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="B40" s="3">
-        <f>B7*B5*0.01</f>
-        <v>0.06</v>
+        <f>(100+B9)*B6/100</f>
+        <v>12.12</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="3">
+        <f>B8*B6*0.01</f>
+        <v>0.06</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B41" s="23">
-        <f>(2*B37)/(B22*B38)*1000000</f>
+      <c r="B42" s="22">
+        <f>(2*B38)/(B23*B39)*1000000</f>
         <v>7.8125</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="30">
-      <c r="A42" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B42" s="23">
-        <f>(B30*(B10^2-B9^2))/(B39^2-B5^2)*1000000</f>
-        <v>34.203980099502601</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D42" s="18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="30">
+      <c r="D42" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B43" s="23">
-        <f>1/(8*B22*(B40/B31))*1000000</f>
-        <v>1.4204545454545454</v>
+        <v>86</v>
+      </c>
+      <c r="B43" s="22">
+        <f>(B31*(B11^2-B10^2))/(B40^2-B6^2)*1000000</f>
+        <v>34.203980099502601</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>88</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B44" s="22">
-        <f>3 * 47</f>
-        <v>141</v>
+        <f>1/(8*B23*(B41/B32))*1000000</f>
+        <v>1.4204545454545454</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="21">
+        <f>3 * 0.000047</f>
+        <v>1.4099999999999998E-4</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" s="16" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="3" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="3">
-        <f>B40/B31*1000</f>
+      <c r="B46" s="3">
+        <f>B41/B32*1000</f>
         <v>110</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B46" s="3">
-        <f>B31/SQRT(12)*1000</f>
-        <v>157.45916432444341</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="D46" s="16" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="25" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" s="3">
+        <f>B32/SQRT(12)*1000</f>
+        <v>157.45916432444341</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B48" s="17">
+        <f>(0.005)/3</f>
+        <v>1.6666666666666668E-3</v>
+      </c>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="2" t="s">
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="3" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B52" s="3">
         <v>2</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="D52" s="16" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="3" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B53" s="3">
         <v>0.7</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C53" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D51" s="16" t="s">
+      <c r="D53" s="16" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="3" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B52" s="24">
-        <f>2*(B50-(((B4-B5)*B6*B51)/B4))/(B22*(B4+B51)^2)</f>
+      <c r="B54" s="23">
+        <f>2*(B52-(((B5-B6)*B7*B53)/B5))/(B23*(B5+B53)^2)</f>
         <v>2.1712638655553419E-10</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C54" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D52" s="24">
-        <f>B52*1000000000000</f>
+      <c r="D54" s="23">
+        <f>B54*1000000000000</f>
         <v>217.1263865555342</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="25" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="2" t="s">
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="3" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B56" s="3">
-        <f>B6*SQRT((B5*(B3-B5))/B3^2)</f>
+      <c r="B58" s="3">
+        <f>B7*SQRT((B6*(B3-B6))/B3^2)</f>
         <v>1.2000000000000002</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D56" s="3"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="3" t="s">
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B59" s="3">
         <v>0.3</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D57" s="3"/>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="3" t="s">
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B58" s="3">
-        <f>(B6*0.25)/(B57*B22)</f>
+      <c r="B60" s="3">
+        <f>(B7*0.25)/(B59*B23)</f>
         <v>3.1250000000000001E-6</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C60" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D58" s="3">
-        <f>B58*1000000</f>
+      <c r="D60" s="3">
+        <f>B60*1000000</f>
         <v>3.125</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="3" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B61" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3" t="s">
+      <c r="C61" s="3"/>
+      <c r="D61" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H59" s="12">
-        <f>3.5/(0.62*94*0.000001*2*3.14*5)</f>
-        <v>1912.5766670018231</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="25" t="s">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="2" t="s">
+      <c r="B63" s="24"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="3" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B65" s="3">
         <v>100</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C65" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D63" s="3"/>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="3" t="s">
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B66" s="3">
         <v>25</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D64" s="3"/>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="25" t="s">
+      <c r="D66" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="2" t="s">
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="3" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B68" s="3">
-        <f>((B3-(B5+1.5))/0.0000034)</f>
+      <c r="B70" s="3">
+        <f>((B3-(B6+1.5))/0.0000034)</f>
         <v>441176.4705882353</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C70" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D70" s="3">
         <v>470000</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="3" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B69" s="3">
-        <f>1.2/(((B3-1.2)/D68)+0.0000012)</f>
+      <c r="B71" s="3">
+        <f>1.2/(((B3-1.2)/D70)+0.0000012)</f>
         <v>39264.828738512944</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C71" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D71" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="25" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="2" t="s">
+      <c r="B73" s="24"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="3" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B75" s="3">
         <v>10000</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C75" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D73" s="3"/>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="3" t="s">
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B74" s="3">
-        <f>(B73*(B5-0.8))/0.8</f>
+      <c r="B76" s="3">
+        <f>(B75*(B6-0.8))/0.8</f>
         <v>140000</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C76" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D76" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="25" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="2" t="s">
+      <c r="B78" s="24"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B79" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="3" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B78" s="3">
-        <f>((B5+0.5+(0.0253*B6))/0.99)+(0.12*B6)-0.5</f>
+      <c r="B80" s="3">
+        <f>((B6+0.5+(0.0253*B7))/0.99)+(0.12*B7)-0.5</f>
         <v>12.562929292929294</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C80" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D78" s="3"/>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="25" t="s">
+      <c r="D80" s="3"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="B80" s="25"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="25"/>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="2" t="s">
+      <c r="B82" s="24"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B83" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D83" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="12" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B82" s="12">
-        <f>B6/(2*3.14*B5*0.62*B44*0.000001)</f>
-        <v>455.37539690519594</v>
-      </c>
-      <c r="C82" s="12" t="s">
+      <c r="B84" s="3">
+        <f>B7/(2*3.14*B6*0.62*B45)</f>
+        <v>455.375396905196</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="12" t="s">
+      <c r="D84" s="3"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B83" s="12">
-        <f>1/(2*3.14*2.5*0.001*0.62*B44*0.000001)</f>
-        <v>728600.63504831353</v>
-      </c>
+      <c r="B85" s="3">
+        <f>1/(2*3.14*B48*0.62*B45)</f>
+        <v>1092900.9525724703</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="3"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B86" s="3">
+        <f>SQRT(B84*B85)</f>
+        <v>22308.747276701921</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B87" s="3">
+        <f>SQRT(B84*B23/2)</f>
+        <v>13496.301669793782</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B88" s="21">
+        <f>MIN(B86, B87)</f>
+        <v>13496.301669793782</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="3"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B89" s="3">
+        <v>12</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D89" s="3"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B90" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90" s="3"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B91" s="36">
+        <v>3.5E-4</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D91" s="3"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B92" s="37">
+        <f>(2*3.14*B88*0.62*B45*B6)/(B89*B90*B91)</f>
+        <v>26462.275805688492</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B93" s="39">
+        <f>1/(2*3.14*B92*B84)</f>
+        <v>1.3214282950101768E-8</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D93" s="21">
+        <f>B93*1000000000000</f>
+        <v>13214.282950101768</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B94" s="38">
+        <f>(0.62*B45*B48)/B92</f>
+        <v>5.5059512292090701E-12</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D94" s="3">
+        <f>B94*1000000000000</f>
+        <v>5.50595122920907</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B95" s="38">
+        <f>1/(B92*B23*3.14)</f>
+        <v>1.5043648358050391E-11</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D95" s="3">
+        <f>B95*1000000000000</f>
+        <v>15.043648358050392</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B96" s="21">
+        <f>D95</f>
+        <v>15.043648358050392</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D96" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="B98" s="24"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="24"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B100" s="3">
+        <f>(B7^2)*0.092*(B6/B4)</f>
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" s="3"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B101" s="3">
+        <f>B4*B23*B7*0.0000000049</f>
+        <v>0.56447999999999998</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" s="3"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B102" s="3">
+        <f>B4*0.000000003*B23</f>
+        <v>0.1152</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" s="3"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B103" s="3">
+        <f>B4*0.000146</f>
+        <v>7.0080000000000003E-3</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103" s="3"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B104" s="21">
+        <f>SUM(B100:B103)</f>
+        <v>0.89368799999999993</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" s="3"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B105" s="17">
+        <v>23.4</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B106" s="21">
+        <f>25+(B105*B104)</f>
+        <v>45.912299199999993</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D106" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A76:D76"/>
+  <mergeCells count="13">
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A78:D78"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A73:D73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2402,7 +3009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18">
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -2413,7 +3020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18">
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -2424,7 +3031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18">
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -2435,7 +3042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18">
+    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -2447,7 +3054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -2456,7 +3063,7 @@
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" ht="18">
+    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -2468,7 +3075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18">
+    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -2480,7 +3087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18">
+    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -2491,7 +3098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -2502,24 +3109,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="26" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="31"/>
-    </row>
-    <row r="14" spans="1:3" ht="18">
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+    </row>
+    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
@@ -2531,7 +3138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -2541,7 +3148,7 @@
       </c>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="17.25">
+    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -2552,7 +3159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18">
+    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -2564,52 +3171,52 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3" ht="15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3" ht="15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:3" ht="15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:3" ht="15">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3" ht="15">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3" ht="15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:3" ht="15">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="1:3" ht="15">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:3" ht="15">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2623,25 +3230,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="45" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.125" style="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="74" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.125" style="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2655,7 +3262,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18">
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -2669,7 +3276,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18">
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
@@ -2684,7 +3291,7 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="18">
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -2699,7 +3306,7 @@
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" ht="18">
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
@@ -2714,7 +3321,7 @@
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="18">
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -2729,7 +3336,7 @@
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" ht="18">
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
@@ -2744,103 +3351,103 @@
       </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" ht="15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="5"/>
       <c r="C8" s="3"/>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:6" ht="15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:6" ht="15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:6" ht="15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:6" ht="15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:6" ht="15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:6" ht="15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="5"/>
       <c r="C14" s="3"/>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:6" ht="15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:6" ht="15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" ht="15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" ht="15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:4" ht="15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:4" ht="15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" ht="15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="1:4" ht="15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="1:4" ht="15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:4" ht="15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2852,25 +3459,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="95.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.125" style="1"/>
+    <col min="1" max="1" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="95.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="74" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.125" style="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2884,7 +3491,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5">
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>43</v>
       </c>
@@ -2894,11 +3501,11 @@
       <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="31" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5">
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -2908,10 +3515,10 @@
       <c r="C3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="33"/>
+      <c r="D3" s="32"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>41</v>
       </c>
@@ -2926,14 +3533,14 @@
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" ht="15">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="18">
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
@@ -2947,7 +3554,7 @@
       <c r="D6" s="7"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" ht="18">
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>40</v>
       </c>
@@ -2961,103 +3568,103 @@
       <c r="D7" s="7"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" ht="15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="5"/>
       <c r="C8" s="3"/>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:6" ht="15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:6" ht="15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:6" ht="15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:6" ht="15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:6" ht="15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:6" ht="15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="5"/>
       <c r="C14" s="3"/>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:6" ht="15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:6" ht="15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" ht="15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" ht="15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:4" ht="15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:4" ht="15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" ht="15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="1:4" ht="15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="1:4" ht="15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:4" ht="15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>

--- a/Calculation.xlsx
+++ b/Calculation.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vylt-my.sharepoint.com/personal/satyam_vylt_in/Documents/Altium_Designs/PowerModules/Buck001/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="275" documentId="11_A080A7F1B44243B2D85E54E72296B2CE3370367C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{833A62F8-0624-4BC3-83E5-5488C8F54E97}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="TPS54360" sheetId="5" r:id="rId1"/>
@@ -18,7 +12,7 @@
     <sheet name="Input TVS Diode" sheetId="3" r:id="rId3"/>
     <sheet name="Pi Filter" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="176">
   <si>
     <t>Parameter</t>
   </si>
@@ -864,21 +858,27 @@
   <si>
     <t>CDBB5100-HF</t>
   </si>
+  <si>
+    <t>Inductor DCR Loss</t>
+  </si>
+  <si>
+    <t>Inductor DC Loss Not Calculated Further</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="7">
     <numFmt numFmtId="164" formatCode="0.00000000"/>
     <numFmt numFmtId="165" formatCode="0.000000000000"/>
     <numFmt numFmtId="166" formatCode="0.000000000"/>
     <numFmt numFmtId="167" formatCode="0.0000000"/>
-    <numFmt numFmtId="174" formatCode="0.000000"/>
-    <numFmt numFmtId="177" formatCode="0.0000000000000"/>
-    <numFmt numFmtId="180" formatCode="0.0000000000000000"/>
+    <numFmt numFmtId="168" formatCode="0.000000"/>
+    <numFmt numFmtId="169" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="170" formatCode="0.0000000000000000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1183,6 +1183,18 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1217,18 +1229,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1562,51 +1562,51 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="12"/>
-    <col min="7" max="7" width="16.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.42578125" style="12" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="12" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" style="12" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="39.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.125" style="12"/>
+    <col min="7" max="7" width="16.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.375" style="12" customWidth="1"/>
+    <col min="9" max="9" width="14.75" style="12" customWidth="1"/>
+    <col min="10" max="10" width="20.25" style="12" customWidth="1"/>
+    <col min="11" max="16384" width="9.125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>44</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="17" t="s">
         <v>103</v>
       </c>
@@ -1653,7 +1653,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="17" t="s">
         <v>146</v>
       </c>
@@ -1674,7 +1674,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
         <v>104</v>
       </c>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
         <v>47</v>
       </c>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
         <v>48</v>
       </c>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>50</v>
       </c>
@@ -1764,7 +1764,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
         <v>80</v>
       </c>
@@ -1809,7 +1809,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="3" t="s">
         <v>81</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>13214.282950101768</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="G12" s="3" t="s">
         <v>168</v>
       </c>
@@ -1848,13 +1848,13 @@
       </c>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+    <row r="13" spans="1:10">
+      <c r="A13" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
       <c r="G13" s="3" t="s">
         <v>169</v>
       </c>
@@ -1864,7 +1864,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
         <v>44</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>3.2727272727272725</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="3" t="s">
         <v>53</v>
       </c>
@@ -1914,7 +1914,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
         <v>54</v>
       </c>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
         <v>56</v>
       </c>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
         <v>57</v>
       </c>
@@ -1950,7 +1950,7 @@
       </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
         <v>58</v>
       </c>
@@ -1962,7 +1962,7 @@
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
         <v>63</v>
       </c>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
         <v>59</v>
       </c>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
         <v>60</v>
       </c>
@@ -2000,7 +2000,7 @@
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
         <v>64</v>
       </c>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
         <v>65</v>
       </c>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
         <v>66</v>
       </c>
@@ -2039,15 +2039,15 @@
       </c>
       <c r="D25" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+    <row r="27" spans="1:4">
+      <c r="A27" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="45">
       <c r="A29" s="3" t="s">
         <v>69</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="3" t="s">
         <v>71</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>19.999999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="16" t="s">
         <v>78</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="3" t="s">
         <v>72</v>
       </c>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="20" t="s">
         <v>73</v>
       </c>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="D33" s="20"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
         <v>74</v>
       </c>
@@ -2143,15 +2143,15 @@
       </c>
       <c r="D34" s="3"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="24" t="s">
+    <row r="36" spans="1:4">
+      <c r="A36" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
         <v>44</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
         <v>79</v>
       </c>
@@ -2178,7 +2178,7 @@
       </c>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
         <v>82</v>
       </c>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
         <v>83</v>
       </c>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
         <v>50</v>
       </c>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="3" t="s">
         <v>84</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="30">
       <c r="A43" s="3" t="s">
         <v>86</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="30">
       <c r="A44" s="3" t="s">
         <v>87</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" s="3" t="s">
         <v>91</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" s="3" t="s">
         <v>92</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" s="3" t="s">
         <v>94</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" s="17" t="s">
         <v>127</v>
       </c>
@@ -2318,15 +2318,15 @@
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="24" t="s">
+    <row r="50" spans="1:4">
+      <c r="A50" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
         <v>44</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" s="3" t="s">
         <v>97</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" s="3" t="s">
         <v>101</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" s="3" t="s">
         <v>100</v>
       </c>
@@ -2384,15 +2384,15 @@
         <v>217.1263865555342</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="24" t="s">
+    <row r="56" spans="1:4">
+      <c r="A56" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
         <v>44</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" s="3" t="s">
         <v>105</v>
       </c>
@@ -2419,7 +2419,7 @@
       </c>
       <c r="D58" s="3"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" s="3" t="s">
         <v>106</v>
       </c>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="D59" s="3"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" s="3" t="s">
         <v>107</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>3.125</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" s="3" t="s">
         <v>109</v>
       </c>
@@ -2459,15 +2459,15 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="24" t="s">
+    <row r="63" spans="1:4">
+      <c r="A63" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="B63" s="24"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="28"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
         <v>44</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" s="3" t="s">
         <v>113</v>
       </c>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="D65" s="3"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" s="3" t="s">
         <v>114</v>
       </c>
@@ -2507,15 +2507,15 @@
         <v>160</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="24" t="s">
+    <row r="68" spans="1:4">
+      <c r="A68" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="B68" s="24"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="28"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="2" t="s">
         <v>44</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" s="3" t="s">
         <v>117</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>470000</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" s="3" t="s">
         <v>118</v>
       </c>
@@ -2559,15 +2559,15 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="24" t="s">
+    <row r="73" spans="1:4">
+      <c r="A73" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="B73" s="24"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="24"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B73" s="28"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="2" t="s">
         <v>44</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75" s="3" t="s">
         <v>118</v>
       </c>
@@ -2593,7 +2593,7 @@
       </c>
       <c r="D75" s="3"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76" s="3" t="s">
         <v>117</v>
       </c>
@@ -2608,15 +2608,15 @@
         <v>120</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="24" t="s">
+    <row r="78" spans="1:4">
+      <c r="A78" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="B78" s="24"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B78" s="28"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="2" t="s">
         <v>44</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="A80" s="3" t="s">
         <v>122</v>
       </c>
@@ -2643,15 +2643,15 @@
       </c>
       <c r="D80" s="3"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="24" t="s">
+    <row r="82" spans="1:4">
+      <c r="A82" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="B82" s="24"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B82" s="28"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="28"/>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="2" t="s">
         <v>44</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84" s="3" t="s">
         <v>124</v>
       </c>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="D84" s="3"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="A85" s="3" t="s">
         <v>125</v>
       </c>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="D85" s="3"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86" s="3" t="s">
         <v>129</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4">
       <c r="A87" s="3" t="s">
         <v>130</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4">
       <c r="A88" s="3" t="s">
         <v>132</v>
       </c>
@@ -2734,7 +2734,7 @@
       </c>
       <c r="D88" s="3"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4">
       <c r="A89" s="3" t="s">
         <v>134</v>
       </c>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="D89" s="3"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4">
       <c r="A90" s="3" t="s">
         <v>136</v>
       </c>
@@ -2758,11 +2758,11 @@
       </c>
       <c r="D90" s="3"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4">
       <c r="A91" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B91" s="36">
+      <c r="B91" s="24">
         <v>3.5E-4</v>
       </c>
       <c r="C91" s="3" t="s">
@@ -2770,11 +2770,11 @@
       </c>
       <c r="D91" s="3"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4">
       <c r="A92" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B92" s="37">
+      <c r="B92" s="25">
         <f>(2*3.14*B88*0.62*B45*B6)/(B89*B90*B91)</f>
         <v>26462.275805688492</v>
       </c>
@@ -2785,11 +2785,11 @@
         <v>142</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4">
       <c r="A93" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B93" s="39">
+      <c r="B93" s="27">
         <f>1/(2*3.14*B92*B84)</f>
         <v>1.3214282950101768E-8</v>
       </c>
@@ -2801,11 +2801,11 @@
         <v>13214.282950101768</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4">
       <c r="A94" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B94" s="38">
+      <c r="B94" s="26">
         <f>(0.62*B45*B48)/B92</f>
         <v>5.5059512292090701E-12</v>
       </c>
@@ -2817,11 +2817,11 @@
         <v>5.50595122920907</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4">
       <c r="A95" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B95" s="38">
+      <c r="B95" s="26">
         <f>1/(B92*B23*3.14)</f>
         <v>1.5043648358050391E-11</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>15.043648358050392</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4">
       <c r="A96" s="3" t="s">
         <v>143</v>
       </c>
@@ -2848,15 +2848,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="24" t="s">
+    <row r="98" spans="1:4">
+      <c r="A98" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="B98" s="24"/>
-      <c r="C98" s="24"/>
-      <c r="D98" s="24"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B98" s="28"/>
+      <c r="C98" s="28"/>
+      <c r="D98" s="28"/>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="2" t="s">
         <v>44</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4">
       <c r="A100" s="3" t="s">
         <v>148</v>
       </c>
@@ -2883,7 +2883,7 @@
       </c>
       <c r="D100" s="3"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4">
       <c r="A101" s="3" t="s">
         <v>147</v>
       </c>
@@ -2896,7 +2896,7 @@
       </c>
       <c r="D101" s="3"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4">
       <c r="A102" s="3" t="s">
         <v>149</v>
       </c>
@@ -2909,7 +2909,7 @@
       </c>
       <c r="D102" s="3"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4">
       <c r="A103" s="3" t="s">
         <v>150</v>
       </c>
@@ -2922,45 +2922,60 @@
       </c>
       <c r="D103" s="3"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4">
       <c r="A104" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B104" s="3">
+        <f>(B7^2)*0.055</f>
+        <v>0.495</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B104" s="21">
+      <c r="B105" s="21">
         <f>SUM(B100:B103)</f>
         <v>0.89368799999999993</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C105" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D104" s="3"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
+      <c r="D105" s="3"/>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B105" s="17">
+      <c r="B106" s="17">
         <v>23.4</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C106" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D106" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
+    <row r="107" spans="1:4">
+      <c r="A107" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B106" s="21">
-        <f>25+(B105*B104)</f>
+      <c r="B107" s="21">
+        <f>25+(B106*B105)</f>
         <v>45.912299199999993</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C107" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D106" s="3"/>
+      <c r="D107" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2983,22 +2998,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="32.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3009,7 +3024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="18">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -3020,7 +3035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="18">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -3031,7 +3046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="18">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -3042,7 +3057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="18">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -3054,7 +3069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -3063,7 +3078,7 @@
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="18">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -3075,7 +3090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="18">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -3087,7 +3102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="18">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -3098,7 +3113,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -3109,24 +3124,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-    </row>
-    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="32"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
+    </row>
+    <row r="14" spans="1:3" ht="18">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
@@ -3138,7 +3153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -3148,7 +3163,7 @@
       </c>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="17.25">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -3159,7 +3174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="18">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -3171,52 +3186,52 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3230,25 +3245,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="45" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="5" max="5" width="9.125" style="1"/>
     <col min="6" max="6" width="74" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3262,7 +3277,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="18">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -3276,7 +3291,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="18">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
@@ -3291,7 +3306,7 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="18">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -3306,7 +3321,7 @@
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="18">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
@@ -3321,7 +3336,7 @@
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="18">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -3336,7 +3351,7 @@
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="18">
       <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
@@ -3351,103 +3366,103 @@
       </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15">
       <c r="A8" s="3"/>
       <c r="B8" s="5"/>
       <c r="C8" s="3"/>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15">
       <c r="A14" s="3"/>
       <c r="B14" s="5"/>
       <c r="C14" s="3"/>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3459,25 +3474,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="95.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="1" max="1" width="32.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="95.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="1"/>
     <col min="6" max="6" width="74" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3491,7 +3506,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="3" t="s">
         <v>43</v>
       </c>
@@ -3501,11 +3516,11 @@
       <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="16.5">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -3515,10 +3530,10 @@
       <c r="C3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="32"/>
+      <c r="D3" s="36"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15">
       <c r="A4" s="3" t="s">
         <v>41</v>
       </c>
@@ -3533,14 +3548,14 @@
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35"/>
+    <row r="5" spans="1:6" ht="15">
+      <c r="A5" s="37"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="18">
       <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
@@ -3554,7 +3569,7 @@
       <c r="D6" s="7"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="18">
       <c r="A7" s="3" t="s">
         <v>40</v>
       </c>
@@ -3568,103 +3583,103 @@
       <c r="D7" s="7"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15">
       <c r="A8" s="3"/>
       <c r="B8" s="5"/>
       <c r="C8" s="3"/>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15">
       <c r="A14" s="3"/>
       <c r="B14" s="5"/>
       <c r="C14" s="3"/>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
